--- a/tabs/crosstabs/Lék...který.xlsx
+++ b/tabs/crosstabs/Lék...který.xlsx
@@ -183,10 +183,10 @@
     <t xml:space="preserve">21</t>
   </si>
   <si>
+    <t xml:space="preserve">4 (1.83 %)</t>
+  </si>
+  <si>
     <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (1.83 %)</t>
   </si>
   <si>
     <t xml:space="preserve">23</t>
@@ -1162,10 +1162,10 @@
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -1173,13 +1173,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
         <v>141</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
         <v>141</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
         <v>141</v>
@@ -3483,7 +3483,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
         <v>141</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
         <v>141</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
         <v>141</v>
@@ -4869,7 +4869,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
         <v>141</v>
@@ -5824,7 +5824,7 @@
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
         <v>99</v>
@@ -5859,10 +5859,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
         <v>99</v>
@@ -8440,19 +8440,19 @@
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>5</v>
+        <v>165</v>
       </c>
       <c r="G22" t="s">
         <v>5</v>
@@ -8541,22 +8541,22 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>153</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="F23" t="s">
-        <v>165</v>
+        <v>5</v>
       </c>
       <c r="G23" t="s">
         <v>5</v>
@@ -10396,10 +10396,10 @@
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -10431,13 +10431,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -11626,10 +11626,10 @@
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>165</v>
       </c>
       <c r="D22" t="s">
         <v>141</v>
@@ -11661,13 +11661,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>165</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
         <v>141</v>
@@ -12891,7 +12891,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
@@ -13582,10 +13582,10 @@
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -13593,13 +13593,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>153</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -14044,10 +14044,10 @@
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>165</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -14055,13 +14055,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="C23" t="s">
-        <v>165</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -14517,7 +14517,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
